--- a/results_xlsx/chybi_prednasejici.xlsx
+++ b/results_xlsx/chybi_prednasejici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>katedra</t>
   </si>
@@ -34,15 +34,15 @@
     <t>jednotkaPrednasky</t>
   </si>
   <si>
+    <t>KBI</t>
+  </si>
+  <si>
     <t>KPRF</t>
   </si>
   <si>
     <t>KGEO</t>
   </si>
   <si>
-    <t>KBI</t>
-  </si>
-  <si>
     <t>KI</t>
   </si>
   <si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>KMA</t>
+  </si>
+  <si>
+    <t>0023</t>
   </si>
   <si>
     <t>0101</t>
@@ -216,8 +219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F32" totalsRowShown="0">
-  <autoFilter ref="A1:F32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F33" totalsRowShown="0">
+  <autoFilter ref="A1:F33"/>
   <tableColumns count="6">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,13 +553,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -568,49 +571,49 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -622,10 +625,10 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>46</v>
@@ -633,107 +636,107 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>46</v>
@@ -741,20 +744,20 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -766,28 +769,28 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>46</v>
@@ -795,20 +798,20 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -820,31 +823,31 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -856,64 +859,64 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>46</v>
@@ -921,182 +924,200 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="2">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>45</v>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/results_xlsx/chybi_prednasejici.xlsx
+++ b/results_xlsx/chybi_prednasejici.xlsx
@@ -780,7 +780,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -790,15 +790,15 @@
         <v>45</v>
       </c>
       <c r="E15" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -808,10 +808,10 @@
         <v>45</v>
       </c>
       <c r="E16" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6">

--- a/results_xlsx/chybi_prednasejici.xlsx
+++ b/results_xlsx/chybi_prednasejici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
   <si>
     <t>katedra</t>
   </si>
@@ -32,12 +32,141 @@
   </si>
   <si>
     <t>jednotkaPrednasky</t>
+  </si>
+  <si>
+    <t>KBI</t>
+  </si>
+  <si>
+    <t>KPRF</t>
+  </si>
+  <si>
+    <t>KGEO</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>KFY</t>
+  </si>
+  <si>
+    <t>KCH</t>
+  </si>
+  <si>
+    <t>CNB</t>
+  </si>
+  <si>
+    <t>KMA</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>B414</t>
+  </si>
+  <si>
+    <t>BK201</t>
+  </si>
+  <si>
+    <t>BP201</t>
+  </si>
+  <si>
+    <t>BTE</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>K201</t>
+  </si>
+  <si>
+    <t>K410</t>
+  </si>
+  <si>
+    <t>K607</t>
+  </si>
+  <si>
+    <t>K608</t>
+  </si>
+  <si>
+    <t>K609</t>
+  </si>
+  <si>
+    <t>KOOD</t>
+  </si>
+  <si>
+    <t>KVICT</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>MA207</t>
+  </si>
+  <si>
+    <t>ME204</t>
+  </si>
+  <si>
+    <t>NA14</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>OOD</t>
+  </si>
+  <si>
+    <t>P201</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P210</t>
+  </si>
+  <si>
+    <t>P402</t>
+  </si>
+  <si>
+    <t>P514</t>
+  </si>
+  <si>
+    <t>P609</t>
+  </si>
+  <si>
+    <t>P618</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HOD/TYD</t>
+  </si>
+  <si>
+    <t>HOD/SEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -67,8 +196,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,8 +219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F33" totalsRowShown="0">
+  <autoFilter ref="A1:F33"/>
   <tableColumns count="6">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -383,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +544,582 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
